--- a/Communities_Eng_Estimate.v3.xlsx
+++ b/Communities_Eng_Estimate.v3.xlsx
@@ -2269,8 +2269,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="301">
+  <cellStyleXfs count="303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3056,7 +3058,7 @@
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="301">
+  <cellStyles count="303">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3207,6 +3209,7 @@
     <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3357,6 +3360,7 @@
     <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -4763,8 +4767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XEN97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D26" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4907,7 +4911,7 @@
         <v>4160</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L6" si="0">K5/$K$3</f>
+        <f>K5/$K$3</f>
         <v>9.6296296296296298</v>
       </c>
     </row>
@@ -4922,7 +4926,7 @@
         <v>3120</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
+        <f>K6/$K$3</f>
         <v>7.2222222222222223</v>
       </c>
       <c r="P6" s="167" t="s">
@@ -37787,15 +37791,15 @@
         <v>8</v>
       </c>
       <c r="G11" s="58">
-        <f t="shared" ref="G11:G42" si="1">F11*points_low</f>
+        <f t="shared" ref="G11:G42" si="0">F11*points_low</f>
         <v>128</v>
       </c>
       <c r="H11" s="58">
-        <f t="shared" ref="H11:H42" si="2">F11*points_high</f>
+        <f t="shared" ref="H11:H42" si="1">F11*points_high</f>
         <v>256</v>
       </c>
       <c r="I11" s="58">
-        <f t="shared" ref="I11:I70" si="3">(G11+H11)/2</f>
+        <f t="shared" ref="I11:I70" si="2">(G11+H11)/2</f>
         <v>192</v>
       </c>
       <c r="J11" s="58">
@@ -37861,7 +37865,7 @@
         <v>0</v>
       </c>
       <c r="AF11">
-        <f t="shared" ref="AF11:AF57" si="4">IF($E11=$AF$10,$I11,0)</f>
+        <f t="shared" ref="AF11:AF57" si="3">IF($E11=$AF$10,$I11,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -37882,15 +37886,15 @@
         <v>8</v>
       </c>
       <c r="G12" s="58">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="H12" s="58">
         <f t="shared" si="1"/>
-        <v>128</v>
-      </c>
-      <c r="H12" s="58">
+        <v>256</v>
+      </c>
+      <c r="I12" s="58">
         <f t="shared" si="2"/>
-        <v>256</v>
-      </c>
-      <c r="I12" s="58">
-        <f t="shared" si="3"/>
         <v>192</v>
       </c>
       <c r="J12" s="58">
@@ -37902,63 +37906,63 @@
         <v>140</v>
       </c>
       <c r="P12">
-        <f t="shared" ref="P12:P67" si="5">IF($E12=$P$10,$G12,0)</f>
+        <f t="shared" ref="P12:P67" si="4">IF($E12=$P$10,$G12,0)</f>
         <v>128</v>
       </c>
       <c r="Q12">
-        <f t="shared" ref="Q12:Q67" si="6">IF($E12=$Q$10,$H12,0)</f>
+        <f t="shared" ref="Q12:Q67" si="5">IF($E12=$Q$10,$H12,0)</f>
         <v>0</v>
       </c>
       <c r="R12">
-        <f t="shared" ref="R12:R67" si="7">IF($E12=$R$10,$H12,0)</f>
+        <f t="shared" ref="R12:R67" si="6">IF($E12=$R$10,$H12,0)</f>
         <v>0</v>
       </c>
       <c r="S12">
-        <f t="shared" ref="S12:S67" si="8">IF($E12=$S$10,$H12,0)</f>
+        <f t="shared" ref="S12:S67" si="7">IF($E12=$S$10,$H12,0)</f>
         <v>0</v>
       </c>
       <c r="T12">
-        <f t="shared" ref="T12:T67" si="9">IF($E12=$T$10,$H12,0)</f>
+        <f t="shared" ref="T12:T67" si="8">IF($E12=$T$10,$H12,0)</f>
         <v>0</v>
       </c>
       <c r="V12">
-        <f t="shared" ref="V12:V67" si="10">IF($E12=$V$10,$G12,0)</f>
+        <f t="shared" ref="V12:V67" si="9">IF($E12=$V$10,$G12,0)</f>
         <v>128</v>
       </c>
       <c r="W12">
-        <f t="shared" ref="W12:W67" si="11">IF($E12=$W$10,$G12,0)</f>
+        <f t="shared" ref="W12:W67" si="10">IF($E12=$W$10,$G12,0)</f>
         <v>0</v>
       </c>
       <c r="X12">
-        <f t="shared" ref="X12:X67" si="12">IF($E12=$X$10,$G12,0)</f>
+        <f t="shared" ref="X12:X67" si="11">IF($E12=$X$10,$G12,0)</f>
         <v>0</v>
       </c>
       <c r="Y12">
-        <f t="shared" ref="Y12:Y67" si="13">IF($E12=$Y$10,$G12,0)</f>
+        <f t="shared" ref="Y12:Y67" si="12">IF($E12=$Y$10,$G12,0)</f>
         <v>0</v>
       </c>
       <c r="Z12">
-        <f t="shared" ref="Z12:Z67" si="14">IF($E12=$Z$10,$G12,0)</f>
+        <f t="shared" ref="Z12:Z67" si="13">IF($E12=$Z$10,$G12,0)</f>
         <v>0</v>
       </c>
       <c r="AB12">
-        <f t="shared" ref="AB12:AB67" si="15">IF($E12=$AB$10,$I12,0)</f>
+        <f t="shared" ref="AB12:AB67" si="14">IF($E12=$AB$10,$I12,0)</f>
         <v>192</v>
       </c>
       <c r="AC12">
-        <f t="shared" ref="AC12:AC67" si="16">IF($E12=$AC$10,$I12,0)</f>
+        <f t="shared" ref="AC12:AC67" si="15">IF($E12=$AC$10,$I12,0)</f>
         <v>0</v>
       </c>
       <c r="AD12">
-        <f t="shared" ref="AD12:AD67" si="17">IF($E12=$AD$10,$I12,0)</f>
+        <f t="shared" ref="AD12:AD67" si="16">IF($E12=$AD$10,$I12,0)</f>
         <v>0</v>
       </c>
       <c r="AE12">
-        <f t="shared" ref="AE12:AE67" si="18">IF($E12=$AE$10,$I12,0)</f>
+        <f t="shared" ref="AE12:AE67" si="17">IF($E12=$AE$10,$I12,0)</f>
         <v>0</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -37979,15 +37983,15 @@
         <v>3</v>
       </c>
       <c r="G13" s="58">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H13" s="58">
         <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="H13" s="58">
+        <v>96</v>
+      </c>
+      <c r="I13" s="58">
         <f t="shared" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="I13" s="58">
-        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="J13" s="58">
@@ -37999,63 +38003,63 @@
         <v>142</v>
       </c>
       <c r="P13">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="Q13">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
-      <c r="Q13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V13">
+      <c r="W13">
         <f t="shared" si="10"/>
-        <v>48</v>
-      </c>
-      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z13">
+      <c r="AB13">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB13">
+        <v>72</v>
+      </c>
+      <c r="AC13">
         <f t="shared" si="15"/>
-        <v>72</v>
-      </c>
-      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE13">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AF13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -38076,15 +38080,15 @@
         <v>5</v>
       </c>
       <c r="G14" s="58">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="H14" s="58">
         <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="H14" s="58">
+        <v>160</v>
+      </c>
+      <c r="I14" s="58">
         <f t="shared" si="2"/>
-        <v>160</v>
-      </c>
-      <c r="I14" s="58">
-        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="J14" s="58">
@@ -38094,63 +38098,63 @@
       <c r="L14" s="58"/>
       <c r="M14" s="59"/>
       <c r="P14">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="Q14">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
-      <c r="Q14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V14">
+      <c r="W14">
         <f t="shared" si="10"/>
-        <v>80</v>
-      </c>
-      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z14">
+      <c r="AB14">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB14">
+        <v>120</v>
+      </c>
+      <c r="AC14">
         <f t="shared" si="15"/>
-        <v>120</v>
-      </c>
-      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE14">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AF14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -38171,15 +38175,15 @@
         <v>3</v>
       </c>
       <c r="G15" s="58">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H15" s="58">
         <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="H15" s="58">
+        <v>96</v>
+      </c>
+      <c r="I15" s="58">
         <f t="shared" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="I15" s="58">
-        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="J15" s="58">
@@ -38191,63 +38195,63 @@
         <v>145</v>
       </c>
       <c r="P15">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="Q15">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
-      <c r="Q15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V15">
+      <c r="W15">
         <f t="shared" si="10"/>
-        <v>48</v>
-      </c>
-      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z15">
+      <c r="AB15">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB15">
+        <v>72</v>
+      </c>
+      <c r="AC15">
         <f t="shared" si="15"/>
-        <v>72</v>
-      </c>
-      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AF15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -38269,15 +38273,15 @@
         <v>2</v>
       </c>
       <c r="G16" s="58">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="H16" s="58">
         <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="H16" s="58">
+        <v>64</v>
+      </c>
+      <c r="I16" s="58">
         <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="I16" s="58">
-        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="J16" s="58">
@@ -38287,63 +38291,63 @@
       <c r="L16" s="58"/>
       <c r="M16" s="59"/>
       <c r="P16">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="Q16">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
-      <c r="Q16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V16">
+      <c r="W16">
         <f t="shared" si="10"/>
-        <v>32</v>
-      </c>
-      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z16">
+      <c r="AB16">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB16">
+        <v>48</v>
+      </c>
+      <c r="AC16">
         <f t="shared" si="15"/>
-        <v>48</v>
-      </c>
-      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AF16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -38364,15 +38368,15 @@
         <v>5</v>
       </c>
       <c r="G17" s="58">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="H17" s="58">
         <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="H17" s="58">
+        <v>160</v>
+      </c>
+      <c r="I17" s="58">
         <f t="shared" si="2"/>
-        <v>160</v>
-      </c>
-      <c r="I17" s="58">
-        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="J17" s="58">
@@ -38384,63 +38388,63 @@
         <v>148</v>
       </c>
       <c r="P17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S17">
+        <v>160</v>
+      </c>
+      <c r="T17">
         <f t="shared" si="8"/>
-        <v>160</v>
-      </c>
-      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="V17">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y17">
+        <v>80</v>
+      </c>
+      <c r="Z17">
         <f t="shared" si="13"/>
-        <v>80</v>
-      </c>
-      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <f t="shared" si="18"/>
         <v>120</v>
       </c>
       <c r="AF17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -38461,15 +38465,15 @@
         <v>3</v>
       </c>
       <c r="G18" s="58">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H18" s="58">
         <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="H18" s="58">
+        <v>96</v>
+      </c>
+      <c r="I18" s="58">
         <f t="shared" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="I18" s="58">
-        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="J18" s="58">
@@ -38481,63 +38485,63 @@
         <v>150</v>
       </c>
       <c r="P18">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="Q18">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
-      <c r="Q18">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V18">
+      <c r="W18">
         <f t="shared" si="10"/>
-        <v>48</v>
-      </c>
-      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z18">
+      <c r="AB18">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB18">
+        <v>72</v>
+      </c>
+      <c r="AC18">
         <f t="shared" si="15"/>
-        <v>72</v>
-      </c>
-      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE18">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AF18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -38558,15 +38562,15 @@
         <v>8</v>
       </c>
       <c r="G19" s="58">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="H19" s="58">
         <f t="shared" si="1"/>
-        <v>128</v>
-      </c>
-      <c r="H19" s="58">
+        <v>256</v>
+      </c>
+      <c r="I19" s="58">
         <f t="shared" si="2"/>
-        <v>256</v>
-      </c>
-      <c r="I19" s="58">
-        <f t="shared" si="3"/>
         <v>192</v>
       </c>
       <c r="J19" s="58">
@@ -38578,63 +38582,63 @@
         <v>152</v>
       </c>
       <c r="P19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T19">
+        <v>256</v>
+      </c>
+      <c r="V19">
         <f t="shared" si="9"/>
-        <v>256</v>
-      </c>
-      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Z19">
+        <v>128</v>
+      </c>
+      <c r="AB19">
         <f t="shared" si="14"/>
-        <v>128</v>
-      </c>
-      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE19">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AF19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>192</v>
       </c>
     </row>
@@ -38656,15 +38660,15 @@
         <v>5</v>
       </c>
       <c r="G20" s="58">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="H20" s="58">
         <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="H20" s="58">
+        <v>160</v>
+      </c>
+      <c r="I20" s="58">
         <f t="shared" si="2"/>
-        <v>160</v>
-      </c>
-      <c r="I20" s="58">
-        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="J20" s="58">
@@ -38676,63 +38680,63 @@
         <v>154</v>
       </c>
       <c r="P20">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="Q20">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
-      <c r="Q20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V20">
+      <c r="W20">
         <f t="shared" si="10"/>
-        <v>80</v>
-      </c>
-      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z20">
+      <c r="AB20">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB20">
+        <v>120</v>
+      </c>
+      <c r="AC20">
         <f t="shared" si="15"/>
-        <v>120</v>
-      </c>
-      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE20">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AF20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -38754,15 +38758,15 @@
         <v>5</v>
       </c>
       <c r="G21" s="58">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="H21" s="58">
         <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="H21" s="58">
+        <v>160</v>
+      </c>
+      <c r="I21" s="58">
         <f t="shared" si="2"/>
-        <v>160</v>
-      </c>
-      <c r="I21" s="58">
-        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="J21" s="58">
@@ -38772,63 +38776,63 @@
       <c r="L21" s="58"/>
       <c r="M21" s="59"/>
       <c r="P21">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="Q21">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
-      <c r="Q21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V21">
+      <c r="W21">
         <f t="shared" si="10"/>
-        <v>80</v>
-      </c>
-      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z21">
+      <c r="AB21">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB21">
+        <v>120</v>
+      </c>
+      <c r="AC21">
         <f t="shared" si="15"/>
-        <v>120</v>
-      </c>
-      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE21">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AF21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -38849,15 +38853,15 @@
         <v>1</v>
       </c>
       <c r="G22" s="58">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H22" s="58">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="H22" s="58">
+        <v>32</v>
+      </c>
+      <c r="I22" s="58">
         <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="I22" s="58">
-        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="J22" s="58">
@@ -38867,63 +38871,63 @@
       <c r="L22" s="58"/>
       <c r="M22" s="59"/>
       <c r="P22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R22">
+        <v>32</v>
+      </c>
+      <c r="S22">
         <f t="shared" si="7"/>
-        <v>32</v>
-      </c>
-      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X22">
+        <v>16</v>
+      </c>
+      <c r="Y22">
         <f t="shared" si="12"/>
-        <v>16</v>
-      </c>
-      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z22">
+      <c r="AB22">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AD22">
+        <v>24</v>
+      </c>
+      <c r="AE22">
         <f t="shared" si="17"/>
-        <v>24</v>
-      </c>
-      <c r="AE22">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -38944,15 +38948,15 @@
         <v>1</v>
       </c>
       <c r="G23" s="58">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H23" s="58">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="H23" s="58">
+        <v>32</v>
+      </c>
+      <c r="I23" s="58">
         <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="I23" s="58">
-        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="J23" s="58">
@@ -38962,63 +38966,63 @@
       <c r="L23" s="58"/>
       <c r="M23" s="59"/>
       <c r="P23">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="Q23">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
-      <c r="Q23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V23">
+      <c r="W23">
         <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z23">
+      <c r="AB23">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB23">
+        <v>24</v>
+      </c>
+      <c r="AC23">
         <f t="shared" si="15"/>
-        <v>24</v>
-      </c>
-      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE23">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AF23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -39039,15 +39043,15 @@
         <v>8</v>
       </c>
       <c r="G24" s="58">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="H24" s="58">
         <f t="shared" si="1"/>
-        <v>128</v>
-      </c>
-      <c r="H24" s="58">
+        <v>256</v>
+      </c>
+      <c r="I24" s="58">
         <f t="shared" si="2"/>
-        <v>256</v>
-      </c>
-      <c r="I24" s="58">
-        <f t="shared" si="3"/>
         <v>192</v>
       </c>
       <c r="J24" s="58">
@@ -39059,63 +39063,63 @@
         <v>159</v>
       </c>
       <c r="P24">
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="Q24">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="9"/>
         <v>128</v>
       </c>
-      <c r="Q24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V24">
+      <c r="W24">
         <f t="shared" si="10"/>
-        <v>128</v>
-      </c>
-      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z24">
+      <c r="AB24">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB24">
+        <v>192</v>
+      </c>
+      <c r="AC24">
         <f t="shared" si="15"/>
-        <v>192</v>
-      </c>
-      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE24">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AF24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -39137,15 +39141,15 @@
         <v>3</v>
       </c>
       <c r="G25" s="58">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H25" s="58">
         <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="H25" s="58">
+        <v>96</v>
+      </c>
+      <c r="I25" s="58">
         <f t="shared" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="I25" s="58">
-        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="J25" s="58">
@@ -39157,63 +39161,63 @@
         <v>161</v>
       </c>
       <c r="P25">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="Q25">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
-      <c r="Q25">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V25">
+      <c r="W25">
         <f t="shared" si="10"/>
-        <v>48</v>
-      </c>
-      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z25">
+      <c r="AB25">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB25">
+        <v>72</v>
+      </c>
+      <c r="AC25">
         <f t="shared" si="15"/>
-        <v>72</v>
-      </c>
-      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE25">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AF25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -39235,15 +39239,15 @@
         <v>2</v>
       </c>
       <c r="G26" s="58">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="H26" s="58">
         <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="H26" s="58">
+        <v>64</v>
+      </c>
+      <c r="I26" s="58">
         <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="I26" s="58">
-        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="J26" s="58">
@@ -39253,63 +39257,63 @@
       <c r="L26" s="58"/>
       <c r="M26" s="59"/>
       <c r="P26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S26">
+        <v>64</v>
+      </c>
+      <c r="T26">
         <f t="shared" si="8"/>
-        <v>64</v>
-      </c>
-      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="V26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y26">
+        <v>32</v>
+      </c>
+      <c r="Z26">
         <f t="shared" si="13"/>
-        <v>32</v>
-      </c>
-      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <f t="shared" si="18"/>
         <v>48</v>
       </c>
       <c r="AF26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -39331,15 +39335,15 @@
         <v>2</v>
       </c>
       <c r="G27" s="58">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="H27" s="58">
         <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="H27" s="58">
-        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="I27" s="58">
-        <f t="shared" ref="I27:I33" si="19">(G27+H27)/2</f>
+        <f t="shared" ref="I27:I33" si="18">(G27+H27)/2</f>
         <v>48</v>
       </c>
       <c r="J27" s="58">
@@ -39351,63 +39355,63 @@
         <v>164</v>
       </c>
       <c r="P27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q27">
+        <v>64</v>
+      </c>
+      <c r="R27">
         <f t="shared" si="6"/>
-        <v>64</v>
-      </c>
-      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W27">
+        <v>32</v>
+      </c>
+      <c r="X27">
         <f t="shared" si="11"/>
-        <v>32</v>
-      </c>
-      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z27">
+      <c r="AB27">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AC27">
+        <v>48</v>
+      </c>
+      <c r="AD27">
         <f t="shared" si="16"/>
-        <v>48</v>
-      </c>
-      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE27">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AF27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -39429,15 +39433,15 @@
         <v>5</v>
       </c>
       <c r="G28" s="58">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="H28" s="58">
         <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="H28" s="58">
-        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="I28" s="58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>120</v>
       </c>
       <c r="J28" s="58">
@@ -39449,63 +39453,63 @@
         <v>166</v>
       </c>
       <c r="P28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R28">
+        <v>160</v>
+      </c>
+      <c r="S28">
         <f t="shared" si="7"/>
-        <v>160</v>
-      </c>
-      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T28">
+      <c r="V28">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X28">
+        <v>80</v>
+      </c>
+      <c r="Y28">
         <f t="shared" si="12"/>
-        <v>80</v>
-      </c>
-      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z28">
+      <c r="AB28">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AD28">
+        <v>120</v>
+      </c>
+      <c r="AE28">
         <f t="shared" si="17"/>
-        <v>120</v>
-      </c>
-      <c r="AE28">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AF28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -39527,15 +39531,15 @@
         <v>1</v>
       </c>
       <c r="G29" s="58">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H29" s="58">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="H29" s="58">
-        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="I29" s="58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="J29" s="58">
@@ -39545,63 +39549,63 @@
       <c r="L29" s="58"/>
       <c r="M29" s="59"/>
       <c r="P29">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="Q29">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
-      <c r="Q29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V29">
+      <c r="W29">
         <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z29">
+      <c r="AB29">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB29">
+        <v>24</v>
+      </c>
+      <c r="AC29">
         <f t="shared" si="15"/>
-        <v>24</v>
-      </c>
-      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE29">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AF29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -39623,15 +39627,15 @@
         <v>2</v>
       </c>
       <c r="G30" s="58">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="H30" s="58">
         <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="H30" s="58">
-        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="I30" s="58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>48</v>
       </c>
       <c r="J30" s="58">
@@ -39641,63 +39645,63 @@
       <c r="L30" s="58"/>
       <c r="M30" s="59"/>
       <c r="P30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q30">
+        <v>64</v>
+      </c>
+      <c r="R30">
         <f t="shared" si="6"/>
-        <v>64</v>
-      </c>
-      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T30">
+      <c r="V30">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W30">
+        <v>32</v>
+      </c>
+      <c r="X30">
         <f t="shared" si="11"/>
-        <v>32</v>
-      </c>
-      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z30">
+      <c r="AB30">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AC30">
+        <v>48</v>
+      </c>
+      <c r="AD30">
         <f t="shared" si="16"/>
-        <v>48</v>
-      </c>
-      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE30">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AF30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -39719,15 +39723,15 @@
         <v>5</v>
       </c>
       <c r="G31" s="58">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="H31" s="58">
         <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="H31" s="58">
-        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="I31" s="58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>120</v>
       </c>
       <c r="J31" s="58">
@@ -39737,63 +39741,63 @@
       <c r="L31" s="58"/>
       <c r="M31" s="59"/>
       <c r="P31">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="Q31">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
-      <c r="Q31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V31">
+      <c r="W31">
         <f t="shared" si="10"/>
-        <v>80</v>
-      </c>
-      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z31">
+      <c r="AB31">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB31">
+        <v>120</v>
+      </c>
+      <c r="AC31">
         <f t="shared" si="15"/>
-        <v>120</v>
-      </c>
-      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE31">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AF31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -39815,15 +39819,15 @@
         <v>3</v>
       </c>
       <c r="G32" s="58">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H32" s="58">
         <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="H32" s="58">
-        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="I32" s="58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>72</v>
       </c>
       <c r="J32" s="58">
@@ -39833,63 +39837,63 @@
       <c r="L32" s="58"/>
       <c r="M32" s="59"/>
       <c r="P32">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="Q32">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
-      <c r="Q32">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V32">
+      <c r="W32">
         <f t="shared" si="10"/>
-        <v>48</v>
-      </c>
-      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z32">
+      <c r="AB32">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB32">
+        <v>72</v>
+      </c>
+      <c r="AC32">
         <f t="shared" si="15"/>
-        <v>72</v>
-      </c>
-      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE32">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AF32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -39911,15 +39915,15 @@
         <v>1</v>
       </c>
       <c r="G33" s="58">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H33" s="58">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="H33" s="58">
-        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="I33" s="34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="J33" s="58">
@@ -39935,59 +39939,59 @@
         <v>16</v>
       </c>
       <c r="Q33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T33">
+      <c r="V33">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V33">
+        <v>16</v>
+      </c>
+      <c r="W33">
         <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z33">
+      <c r="AB33">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB33">
+        <v>24</v>
+      </c>
+      <c r="AC33">
         <f t="shared" si="15"/>
-        <v>24</v>
-      </c>
-      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE33">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AF33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -40009,15 +40013,15 @@
         <v>5</v>
       </c>
       <c r="G34" s="58">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="H34" s="58">
         <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="H34" s="58">
+        <v>160</v>
+      </c>
+      <c r="I34" s="58">
         <f t="shared" si="2"/>
-        <v>160</v>
-      </c>
-      <c r="I34" s="58">
-        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="J34" s="58">
@@ -40029,63 +40033,63 @@
         <v>291</v>
       </c>
       <c r="P34">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="Q34">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
-      <c r="Q34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V34">
+      <c r="W34">
         <f t="shared" si="10"/>
-        <v>80</v>
-      </c>
-      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z34">
+      <c r="AB34">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB34">
+        <v>120</v>
+      </c>
+      <c r="AC34">
         <f t="shared" si="15"/>
-        <v>120</v>
-      </c>
-      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE34">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AF34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -40107,15 +40111,15 @@
         <v>3</v>
       </c>
       <c r="G35" s="58">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H35" s="58">
         <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="H35" s="58">
+        <v>96</v>
+      </c>
+      <c r="I35" s="58">
         <f t="shared" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="I35" s="58">
-        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="J35" s="58">
@@ -40127,63 +40131,63 @@
         <v>291</v>
       </c>
       <c r="P35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q35">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q35">
+        <v>96</v>
+      </c>
+      <c r="R35">
         <f t="shared" si="6"/>
-        <v>96</v>
-      </c>
-      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T35">
+      <c r="V35">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W35">
+        <v>48</v>
+      </c>
+      <c r="X35">
         <f t="shared" si="11"/>
-        <v>48</v>
-      </c>
-      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z35">
+      <c r="AB35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AC35">
+        <v>72</v>
+      </c>
+      <c r="AD35">
         <f t="shared" si="16"/>
-        <v>72</v>
-      </c>
-      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE35">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AF35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -40205,15 +40209,15 @@
         <v>3</v>
       </c>
       <c r="G36" s="58">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H36" s="58">
         <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="H36" s="58">
+        <v>96</v>
+      </c>
+      <c r="I36" s="58">
         <f t="shared" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="I36" s="58">
-        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="J36" s="58">
@@ -40225,63 +40229,63 @@
         <v>291</v>
       </c>
       <c r="P36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q36">
+        <v>96</v>
+      </c>
+      <c r="R36">
         <f t="shared" si="6"/>
-        <v>96</v>
-      </c>
-      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T36">
+      <c r="V36">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W36">
+        <v>48</v>
+      </c>
+      <c r="X36">
         <f t="shared" si="11"/>
-        <v>48</v>
-      </c>
-      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z36">
+      <c r="AB36">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AC36">
+        <v>72</v>
+      </c>
+      <c r="AD36">
         <f t="shared" si="16"/>
-        <v>72</v>
-      </c>
-      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE36">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AF36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -40303,15 +40307,15 @@
         <v>5</v>
       </c>
       <c r="G37" s="58">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="H37" s="58">
         <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="H37" s="58">
-        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="I37" s="58">
-        <f t="shared" ref="I37" si="20">(G37+H37)/2</f>
+        <f>(G37+H37)/2</f>
         <v>120</v>
       </c>
       <c r="J37" s="58">
@@ -40323,63 +40327,63 @@
         <v>291</v>
       </c>
       <c r="P37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q37">
+        <v>160</v>
+      </c>
+      <c r="R37">
         <f t="shared" si="6"/>
-        <v>160</v>
-      </c>
-      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T37">
+      <c r="V37">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W37">
+        <v>80</v>
+      </c>
+      <c r="X37">
         <f t="shared" si="11"/>
-        <v>80</v>
-      </c>
-      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z37">
+      <c r="AB37">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AC37">
+        <v>120</v>
+      </c>
+      <c r="AD37">
         <f t="shared" si="16"/>
-        <v>120</v>
-      </c>
-      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE37">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AF37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -40401,15 +40405,15 @@
         <v>5</v>
       </c>
       <c r="G38" s="58">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="H38" s="58">
         <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="H38" s="58">
+        <v>160</v>
+      </c>
+      <c r="I38" s="58">
         <f t="shared" si="2"/>
-        <v>160</v>
-      </c>
-      <c r="I38" s="58">
-        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="J38" s="58">
@@ -40421,63 +40425,63 @@
         <v>291</v>
       </c>
       <c r="P38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R38">
+        <v>160</v>
+      </c>
+      <c r="S38">
         <f t="shared" si="7"/>
-        <v>160</v>
-      </c>
-      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T38">
+      <c r="V38">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X38">
+        <v>80</v>
+      </c>
+      <c r="Y38">
         <f t="shared" si="12"/>
-        <v>80</v>
-      </c>
-      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z38">
+      <c r="AB38">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AD38">
+        <v>120</v>
+      </c>
+      <c r="AE38">
         <f t="shared" si="17"/>
-        <v>120</v>
-      </c>
-      <c r="AE38">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AF38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -40498,15 +40502,15 @@
         <v>8</v>
       </c>
       <c r="G39" s="58">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="H39" s="58">
         <f t="shared" si="1"/>
-        <v>128</v>
-      </c>
-      <c r="H39" s="58">
+        <v>256</v>
+      </c>
+      <c r="I39" s="58">
         <f t="shared" si="2"/>
-        <v>256</v>
-      </c>
-      <c r="I39" s="58">
-        <f t="shared" si="3"/>
         <v>192</v>
       </c>
       <c r="J39" s="58">
@@ -40518,63 +40522,63 @@
         <v>176</v>
       </c>
       <c r="P39">
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="Q39">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="9"/>
         <v>128</v>
       </c>
-      <c r="Q39">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V39">
+      <c r="W39">
         <f t="shared" si="10"/>
-        <v>128</v>
-      </c>
-      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z39">
+      <c r="AB39">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB39">
+        <v>192</v>
+      </c>
+      <c r="AC39">
         <f t="shared" si="15"/>
-        <v>192</v>
-      </c>
-      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD39">
+      <c r="AE39">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE39">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AF39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -40595,15 +40599,15 @@
         <v>8</v>
       </c>
       <c r="G40" s="58">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="H40" s="58">
         <f t="shared" si="1"/>
-        <v>128</v>
-      </c>
-      <c r="H40" s="58">
+        <v>256</v>
+      </c>
+      <c r="I40" s="58">
         <f t="shared" si="2"/>
-        <v>256</v>
-      </c>
-      <c r="I40" s="58">
-        <f t="shared" si="3"/>
         <v>192</v>
       </c>
       <c r="J40" s="58">
@@ -40615,63 +40619,63 @@
         <v>178</v>
       </c>
       <c r="P40">
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="Q40">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="9"/>
         <v>128</v>
       </c>
-      <c r="Q40">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T40">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V40">
+      <c r="W40">
         <f t="shared" si="10"/>
-        <v>128</v>
-      </c>
-      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X40">
+      <c r="Y40">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z40">
+      <c r="AB40">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB40">
+        <v>192</v>
+      </c>
+      <c r="AC40">
         <f t="shared" si="15"/>
-        <v>192</v>
-      </c>
-      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD40">
+      <c r="AE40">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE40">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AF40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -40692,15 +40696,15 @@
         <v>5</v>
       </c>
       <c r="G41" s="58">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="H41" s="58">
         <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="H41" s="58">
+        <v>160</v>
+      </c>
+      <c r="I41" s="58">
         <f t="shared" si="2"/>
-        <v>160</v>
-      </c>
-      <c r="I41" s="58">
-        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="J41" s="58">
@@ -40712,63 +40716,63 @@
         <v>180</v>
       </c>
       <c r="P41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R41">
+        <v>160</v>
+      </c>
+      <c r="S41">
         <f t="shared" si="7"/>
-        <v>160</v>
-      </c>
-      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T41">
+      <c r="V41">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X41">
+        <v>80</v>
+      </c>
+      <c r="Y41">
         <f t="shared" si="12"/>
-        <v>80</v>
-      </c>
-      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z41">
+      <c r="AB41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AB41">
+      <c r="AC41">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AC41">
+      <c r="AD41">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AD41">
+        <v>120</v>
+      </c>
+      <c r="AE41">
         <f t="shared" si="17"/>
-        <v>120</v>
-      </c>
-      <c r="AE41">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AF41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -40789,15 +40793,15 @@
         <v>3</v>
       </c>
       <c r="G42" s="58">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H42" s="58">
         <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="H42" s="58">
+        <v>96</v>
+      </c>
+      <c r="I42" s="58">
         <f t="shared" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="I42" s="58">
-        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="J42" s="58">
@@ -40807,63 +40811,63 @@
       <c r="L42" s="58"/>
       <c r="M42" s="163"/>
       <c r="P42">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="Q42">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
-      <c r="Q42">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T42">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V42">
+      <c r="W42">
         <f t="shared" si="10"/>
-        <v>48</v>
-      </c>
-      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X42">
+      <c r="Y42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y42">
+      <c r="Z42">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z42">
+      <c r="AB42">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB42">
+        <v>72</v>
+      </c>
+      <c r="AC42">
         <f t="shared" si="15"/>
-        <v>72</v>
-      </c>
-      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD42">
+      <c r="AE42">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE42">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AF42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -40885,15 +40889,15 @@
         <v>3</v>
       </c>
       <c r="G43" s="58">
-        <f t="shared" ref="G43:G70" si="21">F43*points_low</f>
+        <f t="shared" ref="G43:G70" si="19">F43*points_low</f>
         <v>48</v>
       </c>
       <c r="H43" s="58">
-        <f t="shared" ref="H43:H70" si="22">F43*points_high</f>
+        <f t="shared" ref="H43:H70" si="20">F43*points_high</f>
         <v>96</v>
       </c>
       <c r="I43" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="J43" s="58">
@@ -40902,63 +40906,63 @@
       <c r="K43" s="58"/>
       <c r="L43" s="58"/>
       <c r="P43">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="Q43">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
-      <c r="Q43">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T43">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V43">
+      <c r="W43">
         <f t="shared" si="10"/>
-        <v>48</v>
-      </c>
-      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X43">
+      <c r="Y43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y43">
+      <c r="Z43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z43">
+      <c r="AB43">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB43">
+        <v>72</v>
+      </c>
+      <c r="AC43">
         <f t="shared" si="15"/>
-        <v>72</v>
-      </c>
-      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD43">
+      <c r="AE43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE43">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AF43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -40979,15 +40983,15 @@
         <v>1</v>
       </c>
       <c r="G44" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
       <c r="H44" s="58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>32</v>
       </c>
       <c r="I44" s="58">
-        <f t="shared" ref="I44:I49" si="23">(G44+H44)/2</f>
+        <f t="shared" ref="I44:I49" si="21">(G44+H44)/2</f>
         <v>24</v>
       </c>
       <c r="J44" s="58">
@@ -40996,63 +41000,63 @@
       <c r="K44" s="64"/>
       <c r="L44" s="64"/>
       <c r="P44">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="Q44">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
-      <c r="Q44">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T44">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V44">
+      <c r="W44">
         <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X44">
+      <c r="Y44">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y44">
+      <c r="Z44">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z44">
+      <c r="AB44">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB44">
+        <v>24</v>
+      </c>
+      <c r="AC44">
         <f t="shared" si="15"/>
-        <v>24</v>
-      </c>
-      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD44">
+      <c r="AE44">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE44">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AF44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -41073,15 +41077,15 @@
         <v>1</v>
       </c>
       <c r="G45" s="58">
+        <f t="shared" si="19"/>
+        <v>16</v>
+      </c>
+      <c r="H45" s="58">
+        <f t="shared" si="20"/>
+        <v>32</v>
+      </c>
+      <c r="I45" s="58">
         <f t="shared" si="21"/>
-        <v>16</v>
-      </c>
-      <c r="H45" s="58">
-        <f t="shared" si="22"/>
-        <v>32</v>
-      </c>
-      <c r="I45" s="58">
-        <f t="shared" si="23"/>
         <v>24</v>
       </c>
       <c r="J45" s="58">
@@ -41090,63 +41094,63 @@
       <c r="K45" s="64"/>
       <c r="L45" s="64"/>
       <c r="P45">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="Q45">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
-      <c r="Q45">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V45">
+      <c r="W45">
         <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X45">
+      <c r="Y45">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y45">
+      <c r="Z45">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z45">
+      <c r="AB45">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB45">
+        <v>24</v>
+      </c>
+      <c r="AC45">
         <f t="shared" si="15"/>
-        <v>24</v>
-      </c>
-      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD45">
+      <c r="AE45">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE45">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AF45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -41167,78 +41171,78 @@
         <v>1</v>
       </c>
       <c r="G46" s="58">
+        <f t="shared" si="19"/>
+        <v>16</v>
+      </c>
+      <c r="H46" s="58">
+        <f t="shared" si="20"/>
+        <v>32</v>
+      </c>
+      <c r="I46" s="58">
         <f t="shared" si="21"/>
+        <v>24</v>
+      </c>
+      <c r="J46" s="58">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
-      <c r="H46" s="58">
-        <f t="shared" si="22"/>
-        <v>32</v>
-      </c>
-      <c r="I46" s="58">
-        <f t="shared" si="23"/>
+      <c r="X46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
-      <c r="J46" s="58">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-      <c r="R46">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T46">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V46">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <f t="shared" si="11"/>
-        <v>16</v>
-      </c>
-      <c r="X46">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y46">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Z46">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB46">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AC46">
+      <c r="AD46">
         <f t="shared" si="16"/>
-        <v>24</v>
-      </c>
-      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE46">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AF46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -41259,78 +41263,78 @@
         <v>1</v>
       </c>
       <c r="G47" s="58">
+        <f t="shared" si="19"/>
+        <v>16</v>
+      </c>
+      <c r="H47" s="58">
+        <f t="shared" si="20"/>
+        <v>32</v>
+      </c>
+      <c r="I47" s="58">
         <f t="shared" si="21"/>
+        <v>24</v>
+      </c>
+      <c r="J47" s="58">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="H47" s="58">
-        <f t="shared" si="22"/>
-        <v>32</v>
-      </c>
-      <c r="I47" s="58">
-        <f t="shared" si="23"/>
+      <c r="Y47">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
-      <c r="J47" s="58">
-        <v>0</v>
-      </c>
-      <c r="P47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <f t="shared" si="7"/>
-        <v>32</v>
-      </c>
-      <c r="S47">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T47">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V47">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X47">
-        <f t="shared" si="12"/>
-        <v>16</v>
-      </c>
-      <c r="Y47">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Z47">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB47">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AC47">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AD47">
+      <c r="AE47">
         <f t="shared" si="17"/>
-        <v>24</v>
-      </c>
-      <c r="AE47">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AF47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -41351,78 +41355,78 @@
         <v>1</v>
       </c>
       <c r="G48" s="58">
+        <f t="shared" si="19"/>
+        <v>16</v>
+      </c>
+      <c r="H48" s="58">
+        <f t="shared" si="20"/>
+        <v>32</v>
+      </c>
+      <c r="I48" s="58">
         <f t="shared" si="21"/>
+        <v>24</v>
+      </c>
+      <c r="J48" s="58">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
-      <c r="H48" s="58">
-        <f t="shared" si="22"/>
-        <v>32</v>
-      </c>
-      <c r="I48" s="58">
-        <f t="shared" si="23"/>
+      <c r="Z48">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <f t="shared" si="17"/>
         <v>24</v>
       </c>
-      <c r="J48" s="58">
-        <v>0</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="T48">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V48">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X48">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y48">
-        <f t="shared" si="13"/>
-        <v>16</v>
-      </c>
-      <c r="Z48">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB48">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AC48">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AD48">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AE48">
-        <f t="shared" si="18"/>
-        <v>24</v>
-      </c>
       <c r="AF48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -41443,78 +41447,78 @@
         <v>0</v>
       </c>
       <c r="G49" s="58">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="58">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="58">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H49" s="58">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="58">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
       <c r="J49" s="58">
         <v>0</v>
       </c>
       <c r="P49">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q49">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T49">
+      <c r="V49">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X49">
+      <c r="Y49">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y49">
+      <c r="Z49">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z49">
+      <c r="AB49">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AB49">
+      <c r="AC49">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AC49">
+      <c r="AD49">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD49">
+      <c r="AE49">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AF49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -41535,11 +41539,11 @@
         <v>2</v>
       </c>
       <c r="G50" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
       <c r="H50" s="58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>64</v>
       </c>
       <c r="I50" s="34">
@@ -41550,63 +41554,63 @@
         <v>0</v>
       </c>
       <c r="P50">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="Q50">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
-      <c r="Q50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T50">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V50">
+      <c r="W50">
         <f t="shared" si="10"/>
-        <v>32</v>
-      </c>
-      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X50">
+      <c r="Y50">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y50">
+      <c r="Z50">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z50">
+      <c r="AB50">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB50">
+        <v>48</v>
+      </c>
+      <c r="AC50">
         <f t="shared" si="15"/>
-        <v>48</v>
-      </c>
-      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD50">
+      <c r="AE50">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE50">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AF50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -41627,11 +41631,11 @@
         <v>2</v>
       </c>
       <c r="G51" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
       <c r="H51" s="58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>64</v>
       </c>
       <c r="I51" s="34">
@@ -41642,63 +41646,63 @@
         <v>0</v>
       </c>
       <c r="P51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q51">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q51">
+        <v>64</v>
+      </c>
+      <c r="R51">
         <f t="shared" si="6"/>
-        <v>64</v>
-      </c>
-      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S51">
+      <c r="T51">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T51">
+      <c r="V51">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W51">
+        <v>32</v>
+      </c>
+      <c r="X51">
         <f t="shared" si="11"/>
-        <v>32</v>
-      </c>
-      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y51">
+      <c r="Z51">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z51">
+      <c r="AB51">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AB51">
+      <c r="AC51">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AC51">
+        <v>48</v>
+      </c>
+      <c r="AD51">
         <f t="shared" si="16"/>
-        <v>48</v>
-      </c>
-      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE51">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AF51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -41719,11 +41723,11 @@
         <v>2</v>
       </c>
       <c r="G52" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
       <c r="H52" s="58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>64</v>
       </c>
       <c r="I52" s="34">
@@ -41734,63 +41738,63 @@
         <v>0</v>
       </c>
       <c r="P52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q52">
+      <c r="R52">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R52">
+        <v>64</v>
+      </c>
+      <c r="S52">
         <f t="shared" si="7"/>
-        <v>64</v>
-      </c>
-      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T52">
+      <c r="V52">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X52">
+        <v>32</v>
+      </c>
+      <c r="Y52">
         <f t="shared" si="12"/>
-        <v>32</v>
-      </c>
-      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z52">
+      <c r="AB52">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AB52">
+      <c r="AC52">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AC52">
+      <c r="AD52">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AD52">
+        <v>48</v>
+      </c>
+      <c r="AE52">
         <f t="shared" si="17"/>
-        <v>48</v>
-      </c>
-      <c r="AE52">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AF52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -41811,11 +41815,11 @@
         <v>2</v>
       </c>
       <c r="G53" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
       <c r="H53" s="58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>64</v>
       </c>
       <c r="I53" s="34">
@@ -41826,63 +41830,63 @@
         <v>0</v>
       </c>
       <c r="P53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q53">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q53">
+      <c r="R53">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S53">
+        <v>64</v>
+      </c>
+      <c r="T53">
         <f t="shared" si="8"/>
-        <v>64</v>
-      </c>
-      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="V53">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X53">
+      <c r="Y53">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y53">
+        <v>32</v>
+      </c>
+      <c r="Z53">
         <f t="shared" si="13"/>
-        <v>32</v>
-      </c>
-      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AB53">
+      <c r="AC53">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AC53">
+      <c r="AD53">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD53">
+      <c r="AE53">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AE53">
-        <f t="shared" si="18"/>
         <v>48</v>
       </c>
       <c r="AF53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -41903,11 +41907,11 @@
         <v>0</v>
       </c>
       <c r="G54" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H54" s="58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I54" s="34">
@@ -41918,63 +41922,63 @@
         <v>0</v>
       </c>
       <c r="P54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q54">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R54">
+      <c r="S54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S54">
+      <c r="T54">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T54">
+      <c r="V54">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X54">
+      <c r="Y54">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y54">
+      <c r="Z54">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z54">
+      <c r="AB54">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AB54">
+      <c r="AC54">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AC54">
+      <c r="AD54">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD54">
+      <c r="AE54">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE54">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AF54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -41995,78 +41999,78 @@
         <v>3</v>
       </c>
       <c r="G55" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>48</v>
       </c>
       <c r="H55" s="58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>96</v>
       </c>
       <c r="I55" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="J55" s="58">
         <v>6</v>
       </c>
       <c r="P55">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="Q55">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
-      <c r="Q55">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T55">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V55">
+      <c r="W55">
         <f t="shared" si="10"/>
-        <v>48</v>
-      </c>
-      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X55">
+      <c r="Y55">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y55">
+      <c r="Z55">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z55">
+      <c r="AB55">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB55">
+        <v>72</v>
+      </c>
+      <c r="AC55">
         <f t="shared" si="15"/>
-        <v>72</v>
-      </c>
-      <c r="AC55">
+        <v>0</v>
+      </c>
+      <c r="AD55">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD55">
+      <c r="AE55">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE55">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AF55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -42087,78 +42091,78 @@
         <v>1</v>
       </c>
       <c r="G56" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
       <c r="H56" s="58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>32</v>
       </c>
       <c r="I56" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="J56" s="58">
         <v>6</v>
       </c>
       <c r="P56">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="Q56">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
-      <c r="Q56">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T56">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V56">
+      <c r="W56">
         <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X56">
+      <c r="Y56">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y56">
+      <c r="Z56">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z56">
+      <c r="AB56">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB56">
+        <v>24</v>
+      </c>
+      <c r="AC56">
         <f t="shared" si="15"/>
-        <v>24</v>
-      </c>
-      <c r="AC56">
+        <v>0</v>
+      </c>
+      <c r="AD56">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD56">
+      <c r="AE56">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE56">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AF56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -42179,78 +42183,78 @@
         <v>2</v>
       </c>
       <c r="G57" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
       <c r="H57" s="58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>64</v>
       </c>
       <c r="I57" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="J57" s="58">
         <v>6</v>
       </c>
       <c r="P57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q57">
+      <c r="R57">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R57">
+      <c r="S57">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S57">
+        <v>64</v>
+      </c>
+      <c r="T57">
         <f t="shared" si="8"/>
-        <v>64</v>
-      </c>
-      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="V57">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X57">
+      <c r="Y57">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y57">
+        <v>32</v>
+      </c>
+      <c r="Z57">
         <f t="shared" si="13"/>
-        <v>32</v>
-      </c>
-      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AB57">
+      <c r="AC57">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AC57">
+      <c r="AD57">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD57">
+      <c r="AE57">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AE57">
-        <f t="shared" si="18"/>
         <v>48</v>
       </c>
       <c r="AF57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -42271,15 +42275,15 @@
         <v>3</v>
       </c>
       <c r="G58" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>48</v>
       </c>
       <c r="H58" s="58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>96</v>
       </c>
       <c r="I58" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="J58" s="58">
@@ -42289,63 +42293,63 @@
         <v>191</v>
       </c>
       <c r="P58">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="Q58">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
-      <c r="Q58">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R58">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S58">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T58">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V58">
+      <c r="W58">
         <f t="shared" si="10"/>
-        <v>48</v>
-      </c>
-      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X58">
+      <c r="Y58">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y58">
+      <c r="Z58">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z58">
+      <c r="AB58">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB58">
+        <v>72</v>
+      </c>
+      <c r="AC58">
         <f t="shared" si="15"/>
-        <v>72</v>
-      </c>
-      <c r="AC58">
+        <v>0</v>
+      </c>
+      <c r="AD58">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD58">
+      <c r="AE58">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE58">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AF58">
-        <f t="shared" ref="AF58:AF67" si="24">IF($E58=$AF$10,$I58,0)</f>
+        <f t="shared" ref="AF58:AF67" si="22">IF($E58=$AF$10,$I58,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -42366,78 +42370,78 @@
         <v>1</v>
       </c>
       <c r="G59" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
       <c r="H59" s="58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>32</v>
       </c>
       <c r="I59" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="J59" s="58">
         <v>6</v>
       </c>
       <c r="P59">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="Q59">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
-      <c r="Q59">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R59">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S59">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T59">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V59">
+      <c r="W59">
         <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X59">
+      <c r="Y59">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y59">
+      <c r="Z59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z59">
+      <c r="AB59">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB59">
+        <v>24</v>
+      </c>
+      <c r="AC59">
         <f t="shared" si="15"/>
-        <v>24</v>
-      </c>
-      <c r="AC59">
+        <v>0</v>
+      </c>
+      <c r="AD59">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD59">
+      <c r="AE59">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE59">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AF59">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -42458,78 +42462,78 @@
         <v>3</v>
       </c>
       <c r="G60" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>48</v>
       </c>
       <c r="H60" s="58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>96</v>
       </c>
       <c r="I60" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="J60" s="58">
         <v>6</v>
       </c>
       <c r="P60">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="Q60">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
-      <c r="Q60">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T60">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V60">
+      <c r="W60">
         <f t="shared" si="10"/>
-        <v>48</v>
-      </c>
-      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X60">
+      <c r="Y60">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y60">
+      <c r="Z60">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z60">
+      <c r="AB60">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB60">
+        <v>72</v>
+      </c>
+      <c r="AC60">
         <f t="shared" si="15"/>
-        <v>72</v>
-      </c>
-      <c r="AC60">
+        <v>0</v>
+      </c>
+      <c r="AD60">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD60">
+      <c r="AE60">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE60">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AF60">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -42550,78 +42554,78 @@
         <v>8</v>
       </c>
       <c r="G61" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>128</v>
       </c>
       <c r="H61" s="58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>256</v>
       </c>
       <c r="I61" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>192</v>
       </c>
       <c r="J61" s="58">
         <v>6</v>
       </c>
       <c r="P61">
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="Q61">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="9"/>
         <v>128</v>
       </c>
-      <c r="Q61">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S61">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T61">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V61">
+      <c r="W61">
         <f t="shared" si="10"/>
-        <v>128</v>
-      </c>
-      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X61">
+      <c r="Y61">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y61">
+      <c r="Z61">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z61">
+      <c r="AB61">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB61">
+        <v>192</v>
+      </c>
+      <c r="AC61">
         <f t="shared" si="15"/>
-        <v>192</v>
-      </c>
-      <c r="AC61">
+        <v>0</v>
+      </c>
+      <c r="AD61">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD61">
+      <c r="AE61">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE61">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AF61">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -42642,78 +42646,78 @@
         <v>3</v>
       </c>
       <c r="G62" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>48</v>
       </c>
       <c r="H62" s="58">
+        <f t="shared" si="20"/>
+        <v>96</v>
+      </c>
+      <c r="I62" s="34">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="J62" s="58">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <f t="shared" si="11"/>
+        <v>48</v>
+      </c>
+      <c r="Y62">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AC62">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD62">
+        <f t="shared" si="16"/>
+        <v>72</v>
+      </c>
+      <c r="AE62">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AF62">
         <f t="shared" si="22"/>
-        <v>96</v>
-      </c>
-      <c r="I62" s="34">
-        <f t="shared" si="3"/>
-        <v>72</v>
-      </c>
-      <c r="J62" s="58">
-        <v>0</v>
-      </c>
-      <c r="P62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <f t="shared" si="7"/>
-        <v>96</v>
-      </c>
-      <c r="S62">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T62">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V62">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W62">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X62">
-        <f t="shared" si="12"/>
-        <v>48</v>
-      </c>
-      <c r="Y62">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Z62">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB62">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AC62">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AD62">
-        <f t="shared" si="17"/>
-        <v>72</v>
-      </c>
-      <c r="AE62">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AF62">
-        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -42734,78 +42738,78 @@
         <v>40</v>
       </c>
       <c r="G63" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>640</v>
       </c>
       <c r="H63" s="34">
+        <f t="shared" si="20"/>
+        <v>1280</v>
+      </c>
+      <c r="I63" s="34">
+        <f t="shared" si="2"/>
+        <v>960</v>
+      </c>
+      <c r="J63" s="58">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="4"/>
+        <v>640</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="9"/>
+        <v>640</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <f t="shared" si="14"/>
+        <v>960</v>
+      </c>
+      <c r="AC63">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD63">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AF63">
         <f t="shared" si="22"/>
-        <v>1280</v>
-      </c>
-      <c r="I63" s="34">
-        <f t="shared" si="3"/>
-        <v>960</v>
-      </c>
-      <c r="J63" s="58">
-        <v>0</v>
-      </c>
-      <c r="P63">
-        <f t="shared" si="5"/>
-        <v>640</v>
-      </c>
-      <c r="Q63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T63">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V63">
-        <f t="shared" si="10"/>
-        <v>640</v>
-      </c>
-      <c r="W63">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X63">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y63">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Z63">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB63">
-        <f t="shared" si="15"/>
-        <v>960</v>
-      </c>
-      <c r="AC63">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AD63">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AE63">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AF63">
-        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -42826,78 +42830,78 @@
         <v>15</v>
       </c>
       <c r="G64" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>240</v>
       </c>
       <c r="H64" s="34">
+        <f t="shared" si="20"/>
+        <v>480</v>
+      </c>
+      <c r="I64" s="34">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+      <c r="J64" s="58">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="5"/>
+        <v>480</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="10"/>
+        <v>240</v>
+      </c>
+      <c r="X64">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AC64">
+        <f t="shared" si="15"/>
+        <v>360</v>
+      </c>
+      <c r="AD64">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AF64">
         <f t="shared" si="22"/>
-        <v>480</v>
-      </c>
-      <c r="I64" s="34">
-        <f t="shared" si="3"/>
-        <v>360</v>
-      </c>
-      <c r="J64" s="58">
-        <v>0</v>
-      </c>
-      <c r="P64">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <f t="shared" si="6"/>
-        <v>480</v>
-      </c>
-      <c r="R64">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S64">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T64">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V64">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W64">
-        <f t="shared" si="11"/>
-        <v>240</v>
-      </c>
-      <c r="X64">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y64">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Z64">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB64">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AC64">
-        <f t="shared" si="16"/>
-        <v>360</v>
-      </c>
-      <c r="AD64">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AE64">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AF64">
-        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -42918,78 +42922,78 @@
         <v>5</v>
       </c>
       <c r="G65" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>80</v>
       </c>
       <c r="H65" s="34">
+        <f t="shared" si="20"/>
+        <v>160</v>
+      </c>
+      <c r="I65" s="34">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="J65" s="58">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="6"/>
+        <v>160</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="Y65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AC65">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD65">
+        <f t="shared" si="16"/>
+        <v>120</v>
+      </c>
+      <c r="AE65">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AF65">
         <f t="shared" si="22"/>
-        <v>160</v>
-      </c>
-      <c r="I65" s="34">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="J65" s="58">
-        <v>0</v>
-      </c>
-      <c r="P65">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <f t="shared" si="7"/>
-        <v>160</v>
-      </c>
-      <c r="S65">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T65">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V65">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X65">
-        <f t="shared" si="12"/>
-        <v>80</v>
-      </c>
-      <c r="Y65">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Z65">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB65">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AC65">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AD65">
-        <f t="shared" si="17"/>
-        <v>120</v>
-      </c>
-      <c r="AE65">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AF65">
-        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -43010,78 +43014,78 @@
         <v>0</v>
       </c>
       <c r="G66" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H66" s="34">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="58">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AC66">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD66">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AF66">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="I66" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J66" s="58">
-        <v>0</v>
-      </c>
-      <c r="P66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T66">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V66">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X66">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y66">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Z66">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB66">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AC66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AD66">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AE66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AF66">
-        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -43102,78 +43106,78 @@
         <v>0</v>
       </c>
       <c r="G67" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H67" s="34">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J67" s="58">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AC67">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD67">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AF67">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="I67" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J67" s="58">
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R67">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S67">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T67">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V67">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W67">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X67">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y67">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Z67">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB67">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AC67">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AD67">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AE67">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AF67">
-        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -43191,15 +43195,15 @@
         <v>8</v>
       </c>
       <c r="G68" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>128</v>
       </c>
       <c r="H68" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>256</v>
       </c>
       <c r="I68" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>192</v>
       </c>
       <c r="J68" s="58">
@@ -43220,15 +43224,15 @@
         <v>2</v>
       </c>
       <c r="G69" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
       <c r="H69" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>64</v>
       </c>
       <c r="I69" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="J69" s="58">
@@ -43249,15 +43253,15 @@
         <v>3</v>
       </c>
       <c r="G70" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>48</v>
       </c>
       <c r="H70" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>96</v>
       </c>
       <c r="I70" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="J70" s="58">
@@ -43343,19 +43347,19 @@
         <v>2464</v>
       </c>
       <c r="Q72" s="34">
-        <f t="shared" ref="Q72:T72" si="25">SUM(Q11:Q67)</f>
+        <f>SUM(Q11:Q67)</f>
         <v>1056</v>
       </c>
       <c r="R72" s="34">
-        <f t="shared" si="25"/>
+        <f>SUM(R11:R67)</f>
         <v>864</v>
       </c>
       <c r="S72" s="34">
-        <f t="shared" si="25"/>
+        <f>SUM(S11:S67)</f>
         <v>384</v>
       </c>
       <c r="T72" s="34">
-        <f t="shared" si="25"/>
+        <f>SUM(T11:T67)</f>
         <v>256</v>
       </c>
       <c r="V72" s="34">
@@ -43363,19 +43367,19 @@
         <v>2464</v>
       </c>
       <c r="W72" s="34">
-        <f t="shared" ref="W72:Z72" si="26">SUM(W11:W67)</f>
+        <f>SUM(W11:W67)</f>
         <v>528</v>
       </c>
       <c r="X72" s="34">
-        <f t="shared" si="26"/>
+        <f>SUM(X11:X67)</f>
         <v>432</v>
       </c>
       <c r="Y72" s="34">
-        <f t="shared" si="26"/>
+        <f>SUM(Y11:Y67)</f>
         <v>192</v>
       </c>
       <c r="Z72" s="34">
-        <f t="shared" si="26"/>
+        <f>SUM(Z11:Z67)</f>
         <v>128</v>
       </c>
       <c r="AB72" s="34">
@@ -43409,19 +43413,19 @@
         <v>68.444444444444443</v>
       </c>
       <c r="Q73" s="166">
-        <f t="shared" ref="Q73:T73" si="27">Q72/36</f>
+        <f>Q72/36</f>
         <v>29.333333333333332</v>
       </c>
       <c r="R73" s="166">
-        <f t="shared" si="27"/>
+        <f>R72/36</f>
         <v>24</v>
       </c>
       <c r="S73" s="166">
-        <f t="shared" si="27"/>
+        <f>S72/36</f>
         <v>10.666666666666666</v>
       </c>
       <c r="T73" s="166">
-        <f t="shared" si="27"/>
+        <f>T72/36</f>
         <v>7.1111111111111107</v>
       </c>
       <c r="V73" s="166">
@@ -43429,19 +43433,19 @@
         <v>68.444444444444443</v>
       </c>
       <c r="W73" s="166">
-        <f t="shared" ref="W73" si="28">W72/36</f>
+        <f>W72/36</f>
         <v>14.666666666666666</v>
       </c>
       <c r="X73" s="166">
-        <f t="shared" ref="X73" si="29">X72/36</f>
+        <f>X72/36</f>
         <v>12</v>
       </c>
       <c r="Y73" s="166">
-        <f t="shared" ref="Y73" si="30">Y72/36</f>
+        <f>Y72/36</f>
         <v>5.333333333333333</v>
       </c>
       <c r="Z73" s="166">
-        <f t="shared" ref="Z73" si="31">Z72/36</f>
+        <f>Z72/36</f>
         <v>3.5555555555555554</v>
       </c>
       <c r="AB73" s="166">
@@ -43449,19 +43453,19 @@
         <v>102.66666666666667</v>
       </c>
       <c r="AC73" s="166">
-        <f t="shared" ref="AC73" si="32">AC72/36</f>
+        <f>AC72/36</f>
         <v>22</v>
       </c>
       <c r="AD73" s="166">
-        <f t="shared" ref="AD73" si="33">AD72/36</f>
+        <f>AD72/36</f>
         <v>18</v>
       </c>
       <c r="AE73" s="166">
-        <f t="shared" ref="AE73" si="34">AE72/36</f>
+        <f>AE72/36</f>
         <v>8</v>
       </c>
       <c r="AF73" s="166">
-        <f t="shared" ref="AF73" si="35">AF72/36</f>
+        <f>AF72/36</f>
         <v>5.333333333333333</v>
       </c>
     </row>
@@ -43524,19 +43528,19 @@
         <v>5.7037037037037033</v>
       </c>
       <c r="Q75" s="165">
-        <f t="shared" ref="Q75:T75" si="36">Q73/Q74</f>
+        <f>Q73/Q74</f>
         <v>9.7777777777777768</v>
       </c>
       <c r="R75" s="165">
-        <f t="shared" si="36"/>
+        <f>R73/R74</f>
         <v>8</v>
       </c>
       <c r="S75" s="165">
-        <f t="shared" si="36"/>
+        <f>S73/S74</f>
         <v>3.5555555555555554</v>
       </c>
       <c r="T75" s="165">
-        <f t="shared" si="36"/>
+        <f>T73/T74</f>
         <v>2.3703703703703702</v>
       </c>
       <c r="V75" s="165">
@@ -43544,19 +43548,19 @@
         <v>5.7037037037037033</v>
       </c>
       <c r="W75" s="165">
-        <f t="shared" ref="W75" si="37">W73/W74</f>
+        <f>W73/W74</f>
         <v>4.8888888888888884</v>
       </c>
       <c r="X75" s="165">
-        <f t="shared" ref="X75" si="38">X73/X74</f>
+        <f>X73/X74</f>
         <v>4</v>
       </c>
       <c r="Y75" s="165">
-        <f t="shared" ref="Y75" si="39">Y73/Y74</f>
+        <f>Y73/Y74</f>
         <v>1.7777777777777777</v>
       </c>
       <c r="Z75" s="165">
-        <f t="shared" ref="Z75" si="40">Z73/Z74</f>
+        <f>Z73/Z74</f>
         <v>1.1851851851851851</v>
       </c>
       <c r="AB75" s="165">
@@ -43564,19 +43568,19 @@
         <v>8.5555555555555554</v>
       </c>
       <c r="AC75" s="165">
-        <f t="shared" ref="AC75" si="41">AC73/AC74</f>
+        <f>AC73/AC74</f>
         <v>7.333333333333333</v>
       </c>
       <c r="AD75" s="165">
-        <f t="shared" ref="AD75" si="42">AD73/AD74</f>
+        <f>AD73/AD74</f>
         <v>6</v>
       </c>
       <c r="AE75" s="165">
-        <f t="shared" ref="AE75" si="43">AE73/AE74</f>
+        <f>AE73/AE74</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="AF75" s="165">
-        <f t="shared" ref="AF75" si="44">AF73/AF74</f>
+        <f>AF73/AF74</f>
         <v>1.7777777777777777</v>
       </c>
     </row>
@@ -43639,7 +43643,7 @@
       <c r="U80" s="140"/>
       <c r="V80" s="140"/>
     </row>
-    <row r="81" spans="15:22">
+    <row r="81" spans="15:22" customFormat="1">
       <c r="O81" s="140"/>
       <c r="P81" s="140"/>
       <c r="Q81" s="140"/>
@@ -43649,7 +43653,7 @@
       <c r="U81" s="140"/>
       <c r="V81" s="140"/>
     </row>
-    <row r="82" spans="15:22">
+    <row r="82" spans="15:22" customFormat="1">
       <c r="O82" s="140"/>
       <c r="P82" s="173"/>
       <c r="Q82" s="173"/>
@@ -43659,7 +43663,7 @@
       <c r="U82" s="140"/>
       <c r="V82" s="140"/>
     </row>
-    <row r="83" spans="15:22">
+    <row r="83" spans="15:22" customFormat="1">
       <c r="O83" s="140" t="s">
         <v>280</v>
       </c>
@@ -43679,7 +43683,7 @@
       </c>
       <c r="V83" s="140"/>
     </row>
-    <row r="84" spans="15:22">
+    <row r="84" spans="15:22" customFormat="1">
       <c r="O84" s="140" t="s">
         <v>303</v>
       </c>
@@ -43698,7 +43702,7 @@
       </c>
       <c r="V84" s="140"/>
     </row>
-    <row r="85" spans="15:22">
+    <row r="85" spans="15:22" customFormat="1">
       <c r="O85" s="140" t="s">
         <v>305</v>
       </c>
@@ -43715,7 +43719,7 @@
       </c>
       <c r="V85" s="172"/>
     </row>
-    <row r="86" spans="15:22">
+    <row r="86" spans="15:22" customFormat="1">
       <c r="O86" s="142" t="s">
         <v>306</v>
       </c>
@@ -43732,7 +43736,7 @@
       </c>
       <c r="V86" s="140"/>
     </row>
-    <row r="87" spans="15:22">
+    <row r="87" spans="15:22" customFormat="1">
       <c r="O87" s="142" t="s">
         <v>307</v>
       </c>
@@ -43750,7 +43754,7 @@
       </c>
       <c r="V87" s="140"/>
     </row>
-    <row r="88" spans="15:22">
+    <row r="88" spans="15:22" customFormat="1">
       <c r="O88" s="142"/>
       <c r="P88" s="171"/>
       <c r="Q88" s="171"/>
@@ -43760,7 +43764,7 @@
       <c r="U88" s="140"/>
       <c r="V88" s="140"/>
     </row>
-    <row r="89" spans="15:22">
+    <row r="89" spans="15:22" customFormat="1">
       <c r="O89" s="140" t="s">
         <v>290</v>
       </c>
@@ -43783,7 +43787,7 @@
       </c>
       <c r="V89" s="140"/>
     </row>
-    <row r="90" spans="15:22">
+    <row r="90" spans="15:22" customFormat="1">
       <c r="O90" s="140"/>
       <c r="P90" s="173"/>
       <c r="Q90" s="173"/>
@@ -43793,7 +43797,7 @@
       <c r="U90" s="140"/>
       <c r="V90" s="140"/>
     </row>
-    <row r="91" spans="15:22">
+    <row r="91" spans="15:22" customFormat="1">
       <c r="O91" s="140"/>
       <c r="P91" s="140"/>
       <c r="Q91" s="140"/>
@@ -43803,7 +43807,7 @@
       <c r="U91" s="140"/>
       <c r="V91" s="140"/>
     </row>
-    <row r="92" spans="15:22">
+    <row r="92" spans="15:22" customFormat="1">
       <c r="O92" s="140"/>
       <c r="P92" s="140"/>
       <c r="Q92" s="140"/>
@@ -43813,7 +43817,7 @@
       <c r="U92" s="140"/>
       <c r="V92" s="140"/>
     </row>
-    <row r="93" spans="15:22">
+    <row r="93" spans="15:22" customFormat="1">
       <c r="O93" s="140"/>
       <c r="P93" s="140"/>
       <c r="Q93" s="140"/>
@@ -43823,7 +43827,7 @@
       <c r="U93" s="140"/>
       <c r="V93" s="172"/>
     </row>
-    <row r="94" spans="15:22">
+    <row r="94" spans="15:22" customFormat="1">
       <c r="O94" s="140"/>
       <c r="P94" s="171"/>
       <c r="Q94" s="171"/>
@@ -43833,7 +43837,7 @@
       <c r="U94" s="140"/>
       <c r="V94" s="140"/>
     </row>
-    <row r="95" spans="15:22">
+    <row r="95" spans="15:22" customFormat="1">
       <c r="O95" s="140"/>
       <c r="P95" s="140"/>
       <c r="Q95" s="140"/>
@@ -43843,7 +43847,7 @@
       <c r="U95" s="140"/>
       <c r="V95" s="140"/>
     </row>
-    <row r="96" spans="15:22">
+    <row r="96" spans="15:22" customFormat="1">
       <c r="O96" s="140"/>
       <c r="P96" s="173"/>
       <c r="Q96" s="173"/>
@@ -43853,7 +43857,7 @@
       <c r="U96" s="140"/>
       <c r="V96" s="140"/>
     </row>
-    <row r="97" spans="15:22">
+    <row r="97" spans="15:22" customFormat="1">
       <c r="O97" s="140"/>
       <c r="P97" s="140"/>
       <c r="Q97" s="140"/>
@@ -43870,7 +43874,6 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -44661,19 +44664,19 @@
         <v>1654</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:F14" si="0">SUM(C2:C12)</f>
+        <f>SUM(C2:C12)</f>
         <v>206</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f>SUM(D2:D12)</f>
         <v>1584</v>
       </c>
       <c r="E14" s="174">
-        <f t="shared" si="0"/>
+        <f>SUM(E2:E12)</f>
         <v>989.5</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f>SUM(F2:F12)</f>
         <v>4433.5</v>
       </c>
       <c r="H14">
@@ -46809,10 +46812,13 @@
   <dimension ref="A2:I14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="6" max="6" width="34" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="23">
       <c r="B2" s="148" t="s">
